--- a/biology/Zoologie/Beethoven_(série_de_films)/Beethoven_(série_de_films).xlsx
+++ b/biology/Zoologie/Beethoven_(série_de_films)/Beethoven_(série_de_films).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Beethoven_(s%C3%A9rie_de_films)</t>
+          <t>Beethoven_(série_de_films)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Beethoven est une série de films qui a débuté en 1992.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Beethoven_(s%C3%A9rie_de_films)</t>
+          <t>Beethoven_(série_de_films)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Films</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette série, tirant son titre du nom de son personnage principal, un chien nommé Beethoven, contient huit films :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette série, tirant son titre du nom de son personnage principal, un chien nommé Beethoven, contient huit films :
 Beethoven (Beethoven) sorti en 1992
 Beethoven 2 (Beethoven's 2nd) sorti en 1993
 Beethoven 3 (Beethoven's 3rd) sorti en 2000, directement en vidéo
@@ -522,10 +536,7 @@
 Beethoven et le trésor perdu (Beethoven's 5th) sorti en 2003, directement en vidéo
 Beethoven : Une star est née ! (Beethoven's Big Break) sorti en 2008, directement en vidéo
 Beethoven sauve Noël (Beethoven's Christmas Adventure) sorti en 2011, directement en vidéo
-Beethoven et le Trésor des pirates (Beethoven's Treasure Tail) sorti en 2014, directement en vidéo
-Beethovens.Treasure.Tail
-Il existe par ailleurs une série animée américaine Beethoven (de 26 épisodes) datant de 1994.
-</t>
+Beethoven et le Trésor des pirates (Beethoven's Treasure Tail) sorti en 2014, directement en vidéo</t>
         </is>
       </c>
     </row>
@@ -535,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Beethoven_(s%C3%A9rie_de_films)</t>
+          <t>Beethoven_(série_de_films)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,10 +561,21 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Fiche technique</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
+          <t>Films</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Beethovens.Treasure.Tail</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il existe par ailleurs une série animée américaine Beethoven (de 26 épisodes) datant de 1994.
+</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -561,7 +583,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Beethoven_(s%C3%A9rie_de_films)</t>
+          <t>Beethoven_(série_de_films)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,10 +598,40 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Fiche technique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Beethoven_(série_de_films)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Beethoven_(s%C3%A9rie_de_films)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Remarques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Quatre des acteurs de la série ont participé à l'émission à succès Dancing with the Stars:
 John O'Hurley du 7, a participé à la saison 1 (finaliste face à Kelly Monaco).
